--- a/hashing.xlsx
+++ b/hashing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhoom\Desktop\KKumar dsa complete course\HASHING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhoom\Desktop\KKumar dsa complete course\DSA\HASHING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5A5E9C-A259-4DA6-AAC6-A8B103837505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BAE8F7-A88B-42DA-B456-9F5DC498912C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C62BDB24-4D7F-4956-9620-2E759C20C45A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>SL.NO</t>
   </si>
@@ -130,25 +130,55 @@
     <t>O(N+Q) / O(N)</t>
   </si>
   <si>
-    <t>Idea: using unordered map and freq[arr[i]]++;</t>
-  </si>
-  <si>
     <t>Two sums</t>
   </si>
   <si>
     <t>CSUMQ - Cumulative Sum Query/Prefix sum</t>
   </si>
   <si>
-    <t>DESCRIPTION [Naïve approach]</t>
-  </si>
-  <si>
     <t>O(N) / O(N)</t>
   </si>
   <si>
     <t>O(N^2)/O(1)</t>
   </si>
   <si>
-    <t>using concept of a + b = target as a = target - b</t>
+    <t>O(N)/O(N)</t>
+  </si>
+  <si>
+    <t>O(N^2)/O(N)</t>
+  </si>
+  <si>
+    <t>Max distance between same elements</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>Count pairs with given sum</t>
+  </si>
+  <si>
+    <t>First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>Find Common Characters</t>
+  </si>
+  <si>
+    <t>O(N)/O(1)</t>
+  </si>
+  <si>
+    <t>Longest consecutive sequence</t>
+  </si>
+  <si>
+    <t>Find the length of largest subarray with 0 sum</t>
+  </si>
+  <si>
+    <t>Count Number of Pairs With Absolute Difference K</t>
+  </si>
+  <si>
+    <t>Subarrays with sum k</t>
+  </si>
+  <si>
+    <t>Subarrays with given xor</t>
   </si>
 </sst>
 </file>
@@ -252,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,6 +291,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -275,16 +320,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -609,7 +652,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,14 +667,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -644,16 +687,16 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -666,14 +709,14 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -712,7 +755,7 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
@@ -726,38 +769,38 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C9">
@@ -867,21 +910,25 @@
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{CC343272-D439-4698-8CD4-5F3E69DD9066}"/>
+    <hyperlink ref="E7:H7" r:id="rId2" display="CPP CONTAINER" xr:uid="{F644E46A-1BB2-4BFF-9EA1-E84E315E93FB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E072964-AA64-48E9-B13E-F0BE3220D120}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="39.109375" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" customWidth="1"/>
     <col min="4" max="4" width="24.21875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
@@ -890,81 +937,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
     </row>
     <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -988,79 +1035,208 @@
       <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="16">
         <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="16"/>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="16"/>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>33</v>
+      <c r="C7" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{6AA0E4B5-C8A7-4EA2-B433-D842722A1361}"/>
@@ -1068,7 +1244,28 @@
     <hyperlink ref="C7" r:id="rId3" xr:uid="{3C8C86C9-3B65-4528-9B40-40304C80AE46}"/>
     <hyperlink ref="F6" r:id="rId4" xr:uid="{34552753-2686-4B9E-A69A-BE72B76C843D}"/>
     <hyperlink ref="F7" r:id="rId5" xr:uid="{F56986B1-12E3-4FEE-976C-858CB4A150AB}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{79949545-C1F5-4D60-8116-8A78DEAE148D}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{143B5586-7321-4AF9-9930-51F28CF02340}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{4357D9BB-6E6D-413B-AB9D-69F6E481B843}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{C8981343-E403-49B0-9110-9B4744C648FE}"/>
+    <hyperlink ref="F9" r:id="rId10" xr:uid="{912CA5E5-3C80-4F7E-95B8-025FDF3B0696}"/>
+    <hyperlink ref="C10" r:id="rId11" xr:uid="{703B0C20-5AD4-4CE1-A12D-D6BAF270D57B}"/>
+    <hyperlink ref="F10" r:id="rId12" xr:uid="{27D10847-7E74-40E7-8030-A3316997EDA6}"/>
+    <hyperlink ref="F11" r:id="rId13" xr:uid="{7914D245-3BC5-4950-85AB-DC2815F4614E}"/>
+    <hyperlink ref="C11" r:id="rId14" xr:uid="{78576EAB-E1AA-4D23-967F-4DE7089D2351}"/>
+    <hyperlink ref="C12" r:id="rId15" xr:uid="{CFCE2BB6-0706-4050-B792-86570908171F}"/>
+    <hyperlink ref="F12" r:id="rId16" xr:uid="{47D30AF5-E1FC-4F45-987C-A8BA3DF5218B}"/>
+    <hyperlink ref="F14" r:id="rId17" xr:uid="{1001AAA6-43C8-4245-85B7-0D76DBECB310}"/>
+    <hyperlink ref="C14" r:id="rId18" xr:uid="{6E3C8D95-807A-4C43-9D99-0D5E61886811}"/>
+    <hyperlink ref="C15" r:id="rId19" xr:uid="{5BB1868E-B96F-4825-A051-BBEB85C90ACA}"/>
+    <hyperlink ref="F15" r:id="rId20" xr:uid="{8D384B06-6B8D-4C49-83B9-355EE94B2A09}"/>
+    <hyperlink ref="C17" r:id="rId21" display="https://leetcode.com/problems/count-number-of-pairs-with-absolute-difference-k/" xr:uid="{5B3181B7-E89D-44AF-BFFC-A4AEA2C8142F}"/>
+    <hyperlink ref="F17" r:id="rId22" xr:uid="{51A9C874-A1AD-40C7-B6E1-9F9671379237}"/>
+    <hyperlink ref="C19" r:id="rId23" xr:uid="{4A8E5D3E-15DA-48CA-8255-F43404C04D43}"/>
+    <hyperlink ref="F19" r:id="rId24" xr:uid="{99387B33-A7B2-4F93-AB1F-776752022D88}"/>
+    <hyperlink ref="C20" r:id="rId25" xr:uid="{458B11E3-CECD-4749-A002-E4BD831C001F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>